--- a/biology/Botanique/Laitue/Laitue.xlsx
+++ b/biology/Botanique/Laitue/Laitue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Laitue (Lactuca), au sens botanique du terme, est un genre de plantes annuelles et bisannuelles[1] de la famille des Astéracées (Composées) dont certaines espèces sont cultivées pour leurs feuilles tendres consommées comme salade verte. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laitue (Lactuca), au sens botanique du terme, est un genre de plantes annuelles et bisannuelles de la famille des Astéracées (Composées) dont certaines espèces sont cultivées pour leurs feuilles tendres consommées comme salade verte. 
 Ce genre comprend plus de 100 espèces. La laitue la plus cultivée est la laitue cultivée (Lactuca sativa) à partir de laquelle les jardiniers ont sélectionné de nombreuses variétés et cultivars.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Lactuca doit son nom au fait que ses espèces contiennent un latex blanc, le lactucarium (Lactuca dérive du latin lac, lactis, le lait) qui s'écoule des blessures des tiges[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Lactuca doit son nom au fait que ses espèces contiennent un latex blanc, le lactucarium (Lactuca dérive du latin lac, lactis, le lait) qui s'écoule des blessures des tiges.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Caractéristiques du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des astéracées
 - inflorescence : plusieurs fleurs regroupées par un réceptacle en capitule. 
@@ -578,9 +594,11 @@
           <t>Croissance et développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces bisannuelles du genre Lactuca sont des plantes à vernalisation facultative. On dit que ce sont des plantes préférentes. Cela signifie que le passage par une période de froid hivernal permet à la plante de fleurir plus rapidement une fois l'hiver passé, mais que cette période n'est pas obligatoire (contrairement aux plantes à vernalisation obligatoire)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces bisannuelles du genre Lactuca sont des plantes à vernalisation facultative. On dit que ce sont des plantes préférentes. Cela signifie que le passage par une période de froid hivernal permet à la plante de fleurir plus rapidement une fois l'hiver passé, mais que cette période n'est pas obligatoire (contrairement aux plantes à vernalisation obligatoire).
 </t>
         </is>
       </c>
